--- a/DataTable/Common/ItemDataTable.xlsx
+++ b/DataTable/Common/ItemDataTable.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\1000Download\DataTable\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098D3909-A5AB-40AB-9F6B-19056AF2744A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490D8981-2FBA-46F7-A5A5-5A0A89FF5B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13710" yWindow="1890" windowWidth="13545" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="RESOURCE" sheetId="4" r:id="rId1"/>
+    <sheet name="ITEM" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>

--- a/DataTable/Common/ItemDataTable.xlsx
+++ b/DataTable/Common/ItemDataTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\1000Download\DataTable\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490D8981-2FBA-46F7-A5A5-5A0A89FF5B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EEF306-DBD5-486D-ADD6-3B131AF0AE99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13710" yWindow="1890" windowWidth="13545" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,14 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NameKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DescKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ITEM_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -76,38 +68,6 @@
   </si>
   <si>
     <t>Icon_Food_Can</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM_WEAPON_DESC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM_ARMOR_DESC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM_SHOES_DESC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM_ACC_DESC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM_WEAPON_TITLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM_ARMOR_TITLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM_SHOES_TITLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM_ACC_TITLE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -438,104 +398,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="25.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/DataTable/Common/ItemDataTable.xlsx
+++ b/DataTable/Common/ItemDataTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\1000Download\DataTable\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1000Download\ProjectD\DataTable\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EEF306-DBD5-486D-ADD6-3B131AF0AE99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B6E5D3-1DAA-47F7-A585-521FE63E80C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13710" yWindow="1890" windowWidth="13545" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="3060" windowWidth="20925" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ITEM" sheetId="4" r:id="rId1"/>
@@ -25,49 +25,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>SWORD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHIELD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHOES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_Sword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_Shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_Tooth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_Food_Can</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;ITEM_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;아이템 타입에 따른 데이터 테이블 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SPRITE_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SWORD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SHIELD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SHOES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon_Sword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon_Shield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon_Tooth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon_Food_Can</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -398,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -413,57 +417,62 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
         <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/DataTable/Common/ItemDataTable.xlsx
+++ b/DataTable/Common/ItemDataTable.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1000Download\ProjectD\DataTable\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B6E5D3-1DAA-47F7-A585-521FE63E80C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF50EA7A-34DD-4D87-9692-C040CBAF8F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3060" windowWidth="20925" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26625" yWindow="5280" windowWidth="20925" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ITEM" sheetId="4" r:id="rId1"/>
+    <sheet name="CONST" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>SWORD</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +73,18 @@
   </si>
   <si>
     <t>SPRITE_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;피로도 1을 회복시킬 떄 필요한 시간.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONST_FATIGUE_RECOVER_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위 : 초</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -79,7 +92,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +107,12 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF172B4D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -118,9 +137,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -404,7 +429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -480,4 +505,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75227B14-FDE7-4D8D-A249-DD45C69A473C}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.875" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="80.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1">
+        <v>160</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DataTable/Common/ItemDataTable.xlsx
+++ b/DataTable/Common/ItemDataTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1000Download\ProjectD\DataTable\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\1000Download\DataTable\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF50EA7A-34DD-4D87-9692-C040CBAF8F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6ABFAD-7868-4012-A48E-557BFFF0147D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26625" yWindow="5280" windowWidth="20925" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ITEM" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>SWORD</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,6 +85,10 @@
   </si>
   <si>
     <t>단위 : 초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM_INDEX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,76 +431,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -511,7 +530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75227B14-FDE7-4D8D-A249-DD45C69A473C}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/DataTable/Common/ItemDataTable.xlsx
+++ b/DataTable/Common/ItemDataTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\1000Download\DataTable\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectD\ProjectD\DataTable\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6ABFAD-7868-4012-A48E-557BFFF0147D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8D145E-244D-42F2-8EFC-9580327C8116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28702" yWindow="-98" windowWidth="28995" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ITEM" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>SWORD</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,6 +90,19 @@
   <si>
     <t>ITEM_INDEX</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHIELD</t>
+  </si>
+  <si>
+    <t>SHOES</t>
+  </si>
+  <si>
+    <t>RING</t>
   </si>
 </sst>
 </file>
@@ -431,25 +444,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="2" max="2" width="16.125" customWidth="1"/>
     <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -462,8 +475,11 @@
       <c r="D2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A3">
         <v>1</v>
       </c>
@@ -476,8 +492,11 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A4">
         <v>2</v>
       </c>
@@ -490,8 +509,11 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A5">
         <v>3</v>
       </c>
@@ -504,8 +526,11 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A6">
         <v>4</v>
       </c>
@@ -517,6 +542,9 @@
       </c>
       <c r="D6" t="s">
         <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -532,14 +560,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="36.875" customWidth="1"/>
     <col min="2" max="2" width="14.125" customWidth="1"/>
     <col min="3" max="3" width="80.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>

--- a/DataTable/Common/ItemDataTable.xlsx
+++ b/DataTable/Common/ItemDataTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectD\ProjectD\DataTable\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\1000Download\DataTable\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8D145E-244D-42F2-8EFC-9580327C8116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED7BE0E-ACB0-42FA-9A53-0F53246599E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28702" yWindow="-98" windowWidth="28995" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ITEM" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>SWORD</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,18 @@
   </si>
   <si>
     <t>RING</t>
+  </si>
+  <si>
+    <t>KNIFE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_Shovel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHOVEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -444,25 +456,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16.125" customWidth="1"/>
     <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -479,7 +491,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -496,54 +508,71 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -560,14 +589,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36.875" customWidth="1"/>
     <col min="2" max="2" width="14.125" customWidth="1"/>
     <col min="3" max="3" width="80.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
